--- a/RNN_python/schd_sam_output_data/anom_data2.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data2.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43140</v>
+        <v>43060</v>
       </c>
       <c r="D2" t="n">
-        <v>7.524426097478582</v>
+        <v>13.56309715313446</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43140.04166666666</v>
+        <v>43060.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>4.960084886267879</v>
+        <v>17.58817466744418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43140.08333333334</v>
+        <v>43060.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>-9.209750154132735</v>
+        <v>16.09402853051967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43140.125</v>
+        <v>43060.125</v>
       </c>
       <c r="D5" t="n">
-        <v>21.35927221983459</v>
+        <v>19.45991220873894</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43140.16666666666</v>
+        <v>43060.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>33.85979799760543</v>
+        <v>19.03670707220721</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43140.20833333334</v>
+        <v>43060.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>25.55821742433402</v>
+        <v>11.09508977224736</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43140.25</v>
+        <v>43060.25</v>
       </c>
       <c r="D8" t="n">
-        <v>25.56840275716927</v>
+        <v>11.017909705997</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43140.29166666666</v>
+        <v>43060.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>27.98719389243755</v>
+        <v>44.8857596306125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43140.33333333334</v>
+        <v>43060.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>253.9171197784475</v>
+        <v>503.7373496635889</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43140.375</v>
+        <v>43060.375</v>
       </c>
       <c r="D11" t="n">
-        <v>383.8197944827828</v>
+        <v>395.8043894720208</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43140.41666666666</v>
+        <v>43060.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>384.3386954475714</v>
+        <v>495.8453487980097</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43140.45833333334</v>
+        <v>43060.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>336.1159031937386</v>
+        <v>301.4067470511378</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43140.5</v>
+        <v>43060.5</v>
       </c>
       <c r="D14" t="n">
-        <v>262.5520195430693</v>
+        <v>324.3829027745538</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43140.54166666666</v>
+        <v>43060.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>255.2917807199671</v>
+        <v>246.0946476289755</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43140.58333333334</v>
+        <v>43060.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>203.7498556513972</v>
+        <v>196.9623410302084</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43140.625</v>
+        <v>43060.625</v>
       </c>
       <c r="D17" t="n">
-        <v>162.5855199239768</v>
+        <v>161.2400756849802</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43140.66666666666</v>
+        <v>43060.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>126.2597750863742</v>
+        <v>131.5537738366627</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43140.70833333334</v>
+        <v>43060.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>92.19156439779994</v>
+        <v>103.3810198489413</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43140.75</v>
+        <v>43060.75</v>
       </c>
       <c r="D20" t="n">
-        <v>62.29825745827513</v>
+        <v>75.75509236907493</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43140.79166666666</v>
+        <v>43060.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>41.60322233150509</v>
+        <v>51.46546224302675</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43140.83333333334</v>
+        <v>43060.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>30.27487808766914</v>
+        <v>33.49852710064516</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43140.875</v>
+        <v>43060.875</v>
       </c>
       <c r="D23" t="n">
-        <v>23.52091709554669</v>
+        <v>21.81573959164854</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43140.91666666666</v>
+        <v>43060.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>19.46647838780576</v>
+        <v>14.84046187010667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43140.95833333334</v>
+        <v>43060.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>4.318133412742526</v>
+        <v>8.036304410973884</v>
       </c>
     </row>
   </sheetData>
@@ -709,71 +709,71 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43140</v>
+        <v>43060</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43140.04166666666</v>
+        <v>43060.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43140.08333333334</v>
+        <v>43060.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43140.125</v>
+        <v>43060.125</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43140.16666666666</v>
+        <v>43060.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43140.20833333334</v>
+        <v>43060.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43140.25</v>
+        <v>43060.25</v>
       </c>
       <c r="D8" t="n">
         <v>16</v>
@@ -783,7 +783,7 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43140.29166666666</v>
+        <v>43060.29166666666</v>
       </c>
       <c r="D9" t="n">
         <v>48</v>
@@ -793,160 +793,160 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43140.33333333334</v>
+        <v>43060.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>446</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43140.375</v>
+        <v>43060.375</v>
       </c>
       <c r="D11" t="n">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43140.41666666666</v>
+        <v>43060.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>399</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43140.45833333334</v>
+        <v>43060.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>253</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43140.5</v>
+        <v>43060.5</v>
       </c>
       <c r="D14" t="n">
-        <v>275</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43140.54166666666</v>
+        <v>43060.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43140.58333333334</v>
+        <v>43060.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43140.625</v>
+        <v>43060.625</v>
       </c>
       <c r="D17" t="n">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43140.66666666666</v>
+        <v>43060.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43140.70833333334</v>
+        <v>43060.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>102</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43140.75</v>
+        <v>43060.75</v>
       </c>
       <c r="D20" t="n">
-        <v>63</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43140.79166666666</v>
+        <v>43060.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43140.83333333334</v>
+        <v>43060.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43140.875</v>
+        <v>43060.875</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43140.91666666666</v>
+        <v>43060.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43140.95833333334</v>
+        <v>43060.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data2.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data2.xlsx
@@ -427,7 +427,7 @@
         <v>43060</v>
       </c>
       <c r="D2" t="n">
-        <v>13.56309715313446</v>
+        <v>9.788643811189687</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43060.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>17.58817466744418</v>
+        <v>17.97715764850936</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43060.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>16.09402853051967</v>
+        <v>19.08676930517629</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43060.125</v>
       </c>
       <c r="D5" t="n">
-        <v>19.45991220873894</v>
+        <v>19.68101882350634</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43060.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>19.03670707220721</v>
+        <v>17.89046405068113</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43060.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>11.09508977224736</v>
+        <v>10.71503224802642</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43060.25</v>
       </c>
       <c r="D8" t="n">
-        <v>11.017909705997</v>
+        <v>10.91326085864044</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43060.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>44.8857596306125</v>
+        <v>43.26533867225611</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43060.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>503.7373496635889</v>
+        <v>503.998720427457</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43060.375</v>
       </c>
       <c r="D11" t="n">
-        <v>395.8043894720208</v>
+        <v>400.5695210982947</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43060.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>495.8453487980097</v>
+        <v>500.773073603055</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43060.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>301.4067470511378</v>
+        <v>305.4785575366182</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43060.5</v>
       </c>
       <c r="D14" t="n">
-        <v>324.3829027745538</v>
+        <v>324.5984416495045</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43060.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>246.0946476289755</v>
+        <v>250.5625928430881</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43060.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>196.9623410302084</v>
+        <v>197.2279089403609</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43060.625</v>
       </c>
       <c r="D17" t="n">
-        <v>161.2400756849802</v>
+        <v>163.0964663727426</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43060.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>131.5537738366627</v>
+        <v>132.3511596033914</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43060.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>103.3810198489413</v>
+        <v>102.9234479095287</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43060.75</v>
       </c>
       <c r="D20" t="n">
-        <v>75.75509236907493</v>
+        <v>75.54634006625187</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43060.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>51.46546224302675</v>
+        <v>51.68751736542902</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43060.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>33.49852710064516</v>
+        <v>32.68794196095119</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43060.875</v>
       </c>
       <c r="D23" t="n">
-        <v>21.81573959164854</v>
+        <v>19.26350473278389</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43060.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>14.84046187010667</v>
+        <v>11.29465577862658</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43060.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>8.036304410973884</v>
+        <v>8.996886548048124</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data2.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data2.xlsx
@@ -427,7 +427,7 @@
         <v>43060</v>
       </c>
       <c r="D2" t="n">
-        <v>9.788643811189687</v>
+        <v>7.724216943868598</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43060.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>17.97715764850936</v>
+        <v>8.292999032202047</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43060.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>19.08676930517629</v>
+        <v>12.08247673508338</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43060.125</v>
       </c>
       <c r="D5" t="n">
-        <v>19.68101882350634</v>
+        <v>14.373615897294</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43060.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>17.89046405068113</v>
+        <v>16.69744063260266</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43060.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>10.71503224802642</v>
+        <v>16.32221101224327</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43060.25</v>
       </c>
       <c r="D8" t="n">
-        <v>10.91326085864044</v>
+        <v>14.72048513937041</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43060.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>43.26533867225611</v>
+        <v>41.12007998429037</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43060.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>503.998720427457</v>
+        <v>504.4713807520715</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43060.375</v>
       </c>
       <c r="D11" t="n">
-        <v>400.5695210982947</v>
+        <v>402.3999131917849</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43060.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>500.773073603055</v>
+        <v>496.8516395180089</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43060.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>305.4785575366182</v>
+        <v>305.4950995097705</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43060.5</v>
       </c>
       <c r="D14" t="n">
-        <v>324.5984416495045</v>
+        <v>323.9277139605739</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43060.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>250.5625928430881</v>
+        <v>248.202810183341</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43060.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>197.2279089403609</v>
+        <v>205.0022379487566</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43060.625</v>
       </c>
       <c r="D17" t="n">
-        <v>163.0964663727426</v>
+        <v>165.2719611128393</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43060.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>132.3511596033914</v>
+        <v>130.552267152047</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43060.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>102.9234479095287</v>
+        <v>100.5453685375048</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43060.75</v>
       </c>
       <c r="D20" t="n">
-        <v>75.54634006625187</v>
+        <v>75.04639117698181</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43060.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>51.68751736542902</v>
+        <v>54.15541092539995</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43060.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>32.68794196095119</v>
+        <v>38.20896777669169</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43060.875</v>
       </c>
       <c r="D23" t="n">
-        <v>19.26350473278389</v>
+        <v>27.05924155849887</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43060.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>11.29465577862658</v>
+        <v>20.06208176582025</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43060.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>8.996886548048124</v>
+        <v>10.73627881904778</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data2.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data2.xlsx
@@ -427,7 +427,7 @@
         <v>43060</v>
       </c>
       <c r="D2" t="n">
-        <v>7.724216943868598</v>
+        <v>14.22115278006304</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43060.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>8.292999032202047</v>
+        <v>13.89416425801375</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43060.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>12.08247673508338</v>
+        <v>18.62852629661201</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43060.125</v>
       </c>
       <c r="D5" t="n">
-        <v>14.373615897294</v>
+        <v>20.22968306490394</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43060.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>16.69744063260266</v>
+        <v>17.14055494439057</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43060.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>16.32221101224327</v>
+        <v>8.753565884471797</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43060.25</v>
       </c>
       <c r="D8" t="n">
-        <v>14.72048513937041</v>
+        <v>11.39063526620031</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43060.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>41.12007998429037</v>
+        <v>38.69890991041375</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43060.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>504.4713807520715</v>
+        <v>507.5877974372404</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43060.375</v>
       </c>
       <c r="D11" t="n">
-        <v>402.3999131917849</v>
+        <v>407.7701168085028</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43060.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>496.8516395180089</v>
+        <v>497.0465388668245</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43060.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>305.4950995097705</v>
+        <v>307.9326503105016</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43060.5</v>
       </c>
       <c r="D14" t="n">
-        <v>323.9277139605739</v>
+        <v>321.3833422300024</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43060.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>248.202810183341</v>
+        <v>245.037772996808</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43060.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>205.0022379487566</v>
+        <v>197.5498229465636</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43060.625</v>
       </c>
       <c r="D17" t="n">
-        <v>165.2719611128393</v>
+        <v>159.895113200139</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43060.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>130.552267152047</v>
+        <v>127.9896822964339</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43060.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>100.5453685375048</v>
+        <v>99.35725364643683</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43060.75</v>
       </c>
       <c r="D20" t="n">
-        <v>75.04639117698181</v>
+        <v>73.62751860596155</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43060.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>54.15541092539995</v>
+        <v>51.60093758851697</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43060.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>38.20896777669169</v>
+        <v>34.23282377126556</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43060.875</v>
       </c>
       <c r="D23" t="n">
-        <v>27.05924155849887</v>
+        <v>21.99532054216078</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43060.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>20.06208176582025</v>
+        <v>14.67891204973353</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43060.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>10.73627881904778</v>
+        <v>9.020400052316859</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data2.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data2.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43060</v>
+        <v>43059</v>
       </c>
       <c r="D2" t="n">
-        <v>14.22115278006304</v>
+        <v>2.267164211966616</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43060.04166666666</v>
+        <v>43059.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>13.89416425801375</v>
+        <v>9.355106736102826</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43060.08333333334</v>
+        <v>43059.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>18.62852629661201</v>
+        <v>12.63764654914701</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43060.125</v>
+        <v>43059.125</v>
       </c>
       <c r="D5" t="n">
-        <v>20.22968306490394</v>
+        <v>14.34332659026215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43060.16666666666</v>
+        <v>43059.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>17.14055494439057</v>
+        <v>19.56555785672676</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43060.20833333334</v>
+        <v>43059.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>8.753565884471797</v>
+        <v>6.919185962033879</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43060.25</v>
+        <v>43059.25</v>
       </c>
       <c r="D8" t="n">
-        <v>11.39063526620031</v>
+        <v>13.09108894817399</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43060.29166666666</v>
+        <v>43059.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>38.69890991041375</v>
+        <v>47.50258995670275</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43060.33333333334</v>
+        <v>43059.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5877974372404</v>
+        <v>475.2720760612864</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43060.375</v>
+        <v>43059.375</v>
       </c>
       <c r="D11" t="n">
-        <v>407.7701168085028</v>
+        <v>385.1494051347494</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43060.41666666666</v>
+        <v>43059.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>497.0465388668245</v>
+        <v>455.7548420878425</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43060.45833333334</v>
+        <v>43059.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>307.9326503105016</v>
+        <v>280.7305473939433</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43060.5</v>
+        <v>43059.5</v>
       </c>
       <c r="D14" t="n">
-        <v>321.3833422300024</v>
+        <v>302.6127970900122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43060.54166666666</v>
+        <v>43059.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>245.037772996808</v>
+        <v>225.6220704132083</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43060.58333333334</v>
+        <v>43059.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>197.5498229465636</v>
+        <v>177.9505604169042</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43060.625</v>
+        <v>43059.625</v>
       </c>
       <c r="D17" t="n">
-        <v>159.895113200139</v>
+        <v>146.9492884030453</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43060.66666666666</v>
+        <v>43059.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>127.9896822964339</v>
+        <v>124.0954079827099</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43060.70833333334</v>
+        <v>43059.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>99.35725364643683</v>
+        <v>94.93626449271893</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43060.75</v>
+        <v>43059.75</v>
       </c>
       <c r="D20" t="n">
-        <v>73.62751860596155</v>
+        <v>57.95715716639242</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43060.79166666666</v>
+        <v>43059.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>51.60093758851697</v>
+        <v>31.43835422630718</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43060.83333333334</v>
+        <v>43059.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>34.23282377126556</v>
+        <v>20.82028742609647</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43060.875</v>
+        <v>43059.875</v>
       </c>
       <c r="D23" t="n">
-        <v>21.99532054216078</v>
+        <v>16.31502428699385</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43060.91666666666</v>
+        <v>43059.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>14.67891204973353</v>
+        <v>13.36327456564347</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43060.95833333334</v>
+        <v>43059.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>9.020400052316859</v>
+        <v>13.87666460537275</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43060</v>
+        <v>43059</v>
       </c>
       <c r="D2" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43060.04166666666</v>
+        <v>43059.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43060.08333333334</v>
+        <v>43059.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43060.125</v>
+        <v>43059.125</v>
       </c>
       <c r="D5" t="n">
-        <v>62</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43060.16666666666</v>
+        <v>43059.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43060.20833333334</v>
+        <v>43059.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43060.25</v>
+        <v>43059.25</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43060.29166666666</v>
+        <v>43059.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43060.33333333334</v>
+        <v>43059.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>528</v>
+        <v>594</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43060.375</v>
+        <v>43059.375</v>
       </c>
       <c r="D11" t="n">
-        <v>411</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43060.41666666666</v>
+        <v>43059.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>493</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43060.45833333334</v>
+        <v>43059.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>302</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43060.5</v>
+        <v>43059.5</v>
       </c>
       <c r="D14" t="n">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43060.54166666666</v>
+        <v>43059.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>257</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43060.58333333334</v>
+        <v>43059.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>238</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43060.625</v>
+        <v>43059.625</v>
       </c>
       <c r="D17" t="n">
-        <v>203</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43060.66666666666</v>
+        <v>43059.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43060.70833333334</v>
+        <v>43059.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>330</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43060.75</v>
+        <v>43059.75</v>
       </c>
       <c r="D20" t="n">
-        <v>129</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43060.79166666666</v>
+        <v>43059.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43060.83333333334</v>
+        <v>43059.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43060.875</v>
+        <v>43059.875</v>
       </c>
       <c r="D23" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43060.91666666666</v>
+        <v>43059.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43060.95833333334</v>
+        <v>43059.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
